--- a/Python/xlxs/data.xlsx
+++ b/Python/xlxs/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>字段1</t>
   </si>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>中二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  我想一个人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,12 +86,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,11 +112,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -410,7 +431,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,42 +513,42 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>6988</v>
       </c>
-      <c r="B5" s="3">
-        <v>4909</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>787</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>3677</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>3459</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>7498</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>1351</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>5792</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>898</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -612,8 +633,8 @@
       <c r="B11" s="3">
         <v>8052</v>
       </c>
-      <c r="C11" s="3">
-        <v>915</v>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <v>7102</v>
